--- a/PLO Equity Structure.xlsx
+++ b/PLO Equity Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\parcap-github\personal-interests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463C63B-EE8C-47F7-A8AB-28145A7DB0E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5BF741-D8F4-40F3-ABD8-E565937EB5B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11250" yWindow="5955" windowWidth="22890" windowHeight="17235" xr2:uid="{41815630-7040-4D39-89A6-9F25FAC81E2D}"/>
+    <workbookView xWindow="10770" yWindow="2760" windowWidth="22890" windowHeight="17235" xr2:uid="{41815630-7040-4D39-89A6-9F25FAC81E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Inner Wrap" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,6 +270,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,24 +599,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -624,16 +624,16 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -641,11 +641,11 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
@@ -654,87 +654,87 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/PLO Equity Structure.xlsx
+++ b/PLO Equity Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\parcap-github\personal-interests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5BF741-D8F4-40F3-ABD8-E565937EB5B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D2B6D8-E9FA-41A2-BD83-205C3A26EACE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10770" yWindow="2760" windowWidth="22890" windowHeight="17235" xr2:uid="{41815630-7040-4D39-89A6-9F25FAC81E2D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>HOLE</t>
   </si>
@@ -60,18 +60,9 @@
     <t>J</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
-    <t>If disconnected with O</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -97,6 +88,12 @@
   </si>
   <si>
     <t>FO</t>
+  </si>
+  <si>
+    <t>K, Q</t>
+  </si>
+  <si>
+    <t>7, 3</t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -221,24 +218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,12 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,9 +247,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD51265-928C-432B-AC32-87CAA0C05634}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,29 +578,29 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,15 +617,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
@@ -653,24 +633,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -683,59 +663,74 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
